--- a/Data/MendAndRecycle - 3226161877/3226161877.xlsx
+++ b/Data/MendAndRecycle - 3226161877/3226161877.xlsx
@@ -5,15 +5,15 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stone\Desktop\새 폴더 (2)\RimworldExtractor 0.7.12\MendAndRecycle - 3226161877\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\RimWorld\Mods\RMK\Data\MendAndRecycle - 3226161877\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2EA179-2B74-4618-9C54-C37887BDEE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D046C84-0DFC-4F40-A2A4-48885B8B2997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main_240420" sheetId="1" r:id="rId1"/>
+    <sheet name="Main_240421" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="176">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -320,236 +320,268 @@
     <t>WorkGiverDef+DoBillsMakeApparel.label</t>
   </si>
   <si>
+    <t>make apparel</t>
+  </si>
+  <si>
+    <t>WorkGiverDef+DoBillsMakeApparel.verb</t>
+  </si>
+  <si>
+    <t>DoBillsMakeApparel.verb</t>
+  </si>
+  <si>
+    <t>tailor</t>
+  </si>
+  <si>
+    <t>WorkGiverDef+DoBillsMakeApparel.gerund</t>
+  </si>
+  <si>
+    <t>DoBillsMakeApparel.gerund</t>
+  </si>
+  <si>
+    <t>tailoring at</t>
+  </si>
+  <si>
+    <t>Keyed+MendRecycle</t>
+  </si>
+  <si>
+    <t>Keyed</t>
+  </si>
+  <si>
+    <t>MendRecycle</t>
+  </si>
+  <si>
+    <t>MendAndRecycle</t>
+  </si>
+  <si>
+    <t>Keyed+MendRecycle.RemovesDeadman</t>
+  </si>
+  <si>
+    <t>MendRecycle.RemovesDeadman</t>
+  </si>
+  <si>
+    <t>Removes Deadman from Apparel</t>
+  </si>
+  <si>
+    <t>Keyed+MendRecycle.RemovesDeadmanTooltip</t>
+  </si>
+  <si>
+    <t>MendRecycle.RemovesDeadmanTooltip</t>
+  </si>
+  <si>
+    <t>Does fully fixing an apparel in the mending table remove the deadman tag?</t>
+  </si>
+  <si>
+    <t>Keyed+MendRecycle.UseTableMending</t>
+  </si>
+  <si>
+    <t>MendRecycle.UseTableMending</t>
+  </si>
+  <si>
+    <t>Uses Mending Table</t>
+  </si>
+  <si>
+    <t>Keyed+MendRecycle.UseTableMendingTooltip</t>
+  </si>
+  <si>
+    <t>MendRecycle.UseTableMendingTooltip</t>
+  </si>
+  <si>
+    <t>Does it use the mending table? (Needs restart)</t>
+  </si>
+  <si>
+    <t>Keyed+MendRecycle.RequiresFuel</t>
+  </si>
+  <si>
+    <t>MendRecycle.RequiresFuel</t>
+  </si>
+  <si>
+    <t>Requires Fuel</t>
+  </si>
+  <si>
+    <t>Keyed+MendRecycle.RequiresFuelTooltip</t>
+  </si>
+  <si>
+    <t>MendRecycle.RequiresFuelTooltip</t>
+  </si>
+  <si>
+    <t>Does the mending table need mending kits? (Needs restart)</t>
+  </si>
+  <si>
+    <t>Keyed+MendRecycle.RequiresPower</t>
+  </si>
+  <si>
+    <t>MendRecycle.RequiresPower</t>
+  </si>
+  <si>
+    <t>Requires Power</t>
+  </si>
+  <si>
+    <t>Keyed+MendRecycle.RequiresPowerTooltip</t>
+  </si>
+  <si>
+    <t>MendRecycle.RequiresPowerTooltip</t>
+  </si>
+  <si>
+    <t>Does the mending table require power? (Needs restart)</t>
+  </si>
+  <si>
+    <t>Keyed+MendRecycle.MaxHPCost</t>
+  </si>
+  <si>
+    <t>MendRecycle.MaxHPCost</t>
+  </si>
+  <si>
+    <t>Percentage of Max Hit Points in play</t>
+  </si>
+  <si>
+    <t>Keyed+MendRecycle.FailChances</t>
+  </si>
+  <si>
+    <t>MendRecycle.FailChances</t>
+  </si>
+  <si>
+    <t>Fail Chance per Tech Level</t>
+  </si>
+  <si>
+    <t>간단한 의류 수선</t>
+  </si>
+  <si>
+    <t>의류를 수선합니다.</t>
+  </si>
+  <si>
+    <t>복잡한 의류 수선</t>
+  </si>
+  <si>
+    <t>방어구를 수선합니다.</t>
+  </si>
+  <si>
+    <t>간단한 무기 수리</t>
+  </si>
+  <si>
+    <t>무기를 수리합니다.</t>
+  </si>
+  <si>
+    <t>복잡한 무기 수리</t>
+  </si>
+  <si>
+    <t>복잡한 무기를 수리합니다.</t>
+  </si>
+  <si>
+    <t>의류 재활용</t>
+  </si>
+  <si>
+    <t>의류를 재활용하여 재료로 되돌립니다.</t>
+  </si>
+  <si>
+    <t>재활용 중</t>
+  </si>
+  <si>
+    <t>수선 도구 제작</t>
+  </si>
+  <si>
+    <t>각종 재료로 수선 도구를 제작합니다. 수선 작업대에 보충하기에 충분한 양을 생산합니다.</t>
+  </si>
+  <si>
+    <t>수선</t>
+  </si>
+  <si>
+    <t>손상된 아이템을 수선하거나 수리합니다.</t>
+  </si>
+  <si>
+    <t>수선 작업대</t>
+  </si>
+  <si>
+    <t>손상된 아이템을 수선하거나 수리하기 위한 모든 공구가 갖춰진 작업대입니다. 전력을 소모하고 수선 도구가 필요합니다. 수선 도구는 전기 재봉 작업대에서 제작할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>수선 도구</t>
+  </si>
+  <si>
+    <t>잡다한 옷감, 도구, 부품들입니다. 무기 수리나 의류 수선에 필요합니다.</t>
+  </si>
+  <si>
+    <t>단위 주기당 HP 회복 비율</t>
+  </si>
+  <si>
+    <t>기술 수준별 수선 실패 확률</t>
+  </si>
+  <si>
+    <t>TargetB 수선 중</t>
+  </si>
+  <si>
+    <t>TargetB 재활용 중</t>
+  </si>
+  <si>
+    <t>수선 중</t>
+  </si>
+  <si>
+    <t>수리 중</t>
+  </si>
+  <si>
+    <t>수선 도구 제작 중</t>
+  </si>
+  <si>
     <t>DoBillsMakeApparel.label</t>
-  </si>
-  <si>
-    <t>make apparel</t>
-  </si>
-  <si>
-    <t>WorkGiverDef+DoBillsMakeApparel.verb</t>
-  </si>
-  <si>
-    <t>DoBillsMakeApparel.verb</t>
-  </si>
-  <si>
-    <t>tailor</t>
-  </si>
-  <si>
-    <t>WorkGiverDef+DoBillsMakeApparel.gerund</t>
-  </si>
-  <si>
-    <t>DoBillsMakeApparel.gerund</t>
-  </si>
-  <si>
-    <t>tailoring at</t>
-  </si>
-  <si>
-    <t>Keyed+MendRecycle</t>
-  </si>
-  <si>
-    <t>Keyed</t>
-  </si>
-  <si>
-    <t>MendRecycle</t>
-  </si>
-  <si>
-    <t>MendAndRecycle</t>
-  </si>
-  <si>
-    <t>Keyed+MendRecycle.RemovesDeadman</t>
-  </si>
-  <si>
-    <t>MendRecycle.RemovesDeadman</t>
-  </si>
-  <si>
-    <t>Removes Deadman from Apparel</t>
-  </si>
-  <si>
-    <t>Keyed+MendRecycle.RemovesDeadmanTooltip</t>
-  </si>
-  <si>
-    <t>MendRecycle.RemovesDeadmanTooltip</t>
-  </si>
-  <si>
-    <t>Does fully fixing an apparel in the mending table remove the deadman tag?</t>
-  </si>
-  <si>
-    <t>Keyed+MendRecycle.UseTableMending</t>
-  </si>
-  <si>
-    <t>MendRecycle.UseTableMending</t>
-  </si>
-  <si>
-    <t>Uses Mending Table</t>
-  </si>
-  <si>
-    <t>Keyed+MendRecycle.UseTableMendingTooltip</t>
-  </si>
-  <si>
-    <t>MendRecycle.UseTableMendingTooltip</t>
-  </si>
-  <si>
-    <t>Does it use the mending table? (Needs restart)</t>
-  </si>
-  <si>
-    <t>Keyed+MendRecycle.RequiresFuel</t>
-  </si>
-  <si>
-    <t>MendRecycle.RequiresFuel</t>
-  </si>
-  <si>
-    <t>Requires Fuel</t>
-  </si>
-  <si>
-    <t>Keyed+MendRecycle.RequiresFuelTooltip</t>
-  </si>
-  <si>
-    <t>MendRecycle.RequiresFuelTooltip</t>
-  </si>
-  <si>
-    <t>Does the mending table need mending kits? (Needs restart)</t>
-  </si>
-  <si>
-    <t>Keyed+MendRecycle.RequiresPower</t>
-  </si>
-  <si>
-    <t>MendRecycle.RequiresPower</t>
-  </si>
-  <si>
-    <t>Requires Power</t>
-  </si>
-  <si>
-    <t>Keyed+MendRecycle.RequiresPowerTooltip</t>
-  </si>
-  <si>
-    <t>MendRecycle.RequiresPowerTooltip</t>
-  </si>
-  <si>
-    <t>Does the mending table require power? (Needs restart)</t>
-  </si>
-  <si>
-    <t>Keyed+MendRecycle.MaxHPCost</t>
-  </si>
-  <si>
-    <t>MendRecycle.MaxHPCost</t>
-  </si>
-  <si>
-    <t>Percentage of Max Hit Points in play</t>
-  </si>
-  <si>
-    <t>Keyed+MendRecycle.FailChances</t>
-  </si>
-  <si>
-    <t>MendRecycle.FailChances</t>
-  </si>
-  <si>
-    <t>Fail Chance per Tech Level</t>
-  </si>
-  <si>
-    <t>간단한 의류 수선</t>
-  </si>
-  <si>
-    <t>의류를 수선합니다.</t>
-  </si>
-  <si>
-    <t>복잡한 의류 수선</t>
-  </si>
-  <si>
-    <t>방어구를 수선합니다.</t>
-  </si>
-  <si>
-    <t>간단한 무기 수리</t>
-  </si>
-  <si>
-    <t>무기를 수리합니다.</t>
-  </si>
-  <si>
-    <t>복잡한 무기 수리</t>
-  </si>
-  <si>
-    <t>복잡한 무기를 수리합니다.</t>
-  </si>
-  <si>
-    <t>의류 재활용</t>
-  </si>
-  <si>
-    <t>의류를 재활용하여 재료로 되돌립니다.</t>
-  </si>
-  <si>
-    <t>재활용 중</t>
-  </si>
-  <si>
-    <t>수선 도구 제작</t>
-  </si>
-  <si>
-    <t>각종 재료로 수선 도구를 제작합니다. 수선 작업대에 보충하기에 충분한 양을 생산합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닐라 노드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닐라 노드 (굳이 번역 필요해보이지 않음)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>수선</t>
-  </si>
-  <si>
-    <t>손상된 아이템을 수선하거나 수리합니다.</t>
-  </si>
-  <si>
-    <t>수선 작업대</t>
-  </si>
-  <si>
-    <t>손상된 아이템을 수선하거나 수리하기 위한 모든 공구가 갖춰진 작업대입니다. 전력을 소모하고 수선 도구가 필요합니다. 수선 도구는 전기 재봉 작업대에서 제작할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>수선 도구</t>
-  </si>
-  <si>
-    <t>잡다한 옷감, 도구, 부품들입니다. 무기 수리나 의류 수선에 필요합니다.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>유품 속성 제거</t>
-  </si>
-  <si>
-    <t>수선 작업대에서 완전히 수리되면 유품 속성을 제거합니까?</t>
-  </si>
-  <si>
-    <t>연료 필요</t>
-  </si>
-  <si>
-    <t>수선 작업대 사용에 수선 도구가 필요합니까? (재시작 필요)</t>
-  </si>
-  <si>
-    <t>전력 필요</t>
-  </si>
-  <si>
-    <t>수선 작업대 사용에 전력이 필요합니까? (재시작 필요)</t>
-  </si>
-  <si>
-    <t>단위 주기당 HP 회복 비율</t>
-  </si>
-  <si>
-    <t>기술 수준별 수선 실패 확률</t>
-  </si>
-  <si>
-    <t>TargetB 수선 중</t>
-  </si>
-  <si>
-    <t>TargetB 재활용 중</t>
-  </si>
-  <si>
-    <t>수선 중</t>
-  </si>
-  <si>
-    <t>수리 중</t>
-  </si>
-  <si>
-    <t>수선 도구 제작 중</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>에서 수선</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수선 작업대 활성화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수선 도구 활성화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력 소비 활성화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수선 작업대가 활성화된 경우 연료로 수선 도구를 요구합니다. 수선 작업대 비활성화 시 이 설정과 관계없이 수선 도구가 필요하지 않습니다.\n\n변경된 설정은 재시작 시 적용됩니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수선 작업대가 전기를 필요로 합니다.\n\n변경된 설정은 재시작 시 적용됩니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수선 시 유품 속성 제거</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수선 작업으로 내구도를 완전히 복원하면 해당 장비의 유품 속성을 제거합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수선 작업에 전용 작업대를 사용하도록 합니다. 비활성 시킬 경우 수선 작업에 재봉 작업대를 사용하며, 관련 작업은 재봉 작업으로 취급합니다.\n\n변경된 설정은 재시작 시 적용됩니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -561,15 +593,6 @@
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -584,8 +607,31 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,11 +640,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -621,23 +677,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
+  <cellStyles count="5">
+    <cellStyle name="메모" xfId="4" builtinId="10"/>
+    <cellStyle name="셀 확인" xfId="3" builtinId="23"/>
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2" xr:uid="{59E8930E-A4B7-40CD-B1CC-0BAE94504573}"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{59E8930E-A4B7-40CD-B1CC-0BAE94504573}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -937,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -951,7 +1033,8 @@
     <col min="4" max="4" width="29.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" style="1" customWidth="1"/>
     <col min="6" max="6" width="55.1796875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="1"/>
+    <col min="7" max="7" width="42.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -988,7 +1071,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1005,7 +1088,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1022,7 +1105,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1039,7 +1122,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1056,7 +1139,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1073,7 +1156,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -1090,7 +1173,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -1107,7 +1190,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -1124,7 +1207,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -1141,7 +1224,7 @@
         <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -1158,7 +1241,7 @@
         <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -1175,7 +1258,7 @@
         <v>42</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -1192,7 +1275,7 @@
         <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -1209,7 +1292,7 @@
         <v>39</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -1226,10 +1309,10 @@
         <v>49</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1243,10 +1326,10 @@
         <v>52</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -1260,10 +1343,10 @@
         <v>55</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -1277,10 +1360,10 @@
         <v>58</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -1294,10 +1377,10 @@
         <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -1311,10 +1394,10 @@
         <v>64</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -1328,10 +1411,10 @@
         <v>68</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
@@ -1345,10 +1428,10 @@
         <v>71</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
@@ -1362,10 +1445,10 @@
         <v>75</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
@@ -1379,10 +1462,10 @@
         <v>78</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -1396,10 +1479,10 @@
         <v>81</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
@@ -1413,10 +1496,10 @@
         <v>84</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>85</v>
       </c>
@@ -1429,11 +1512,11 @@
       <c r="E28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F28" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>89</v>
       </c>
@@ -1446,11 +1529,11 @@
       <c r="E29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F29" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>91</v>
       </c>
@@ -1463,11 +1546,12 @@
       <c r="E30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F30" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
         <v>94</v>
       </c>
@@ -1475,236 +1559,241 @@
         <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="4"/>
+      <c r="G31" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="4"/>
+      <c r="G32" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="4"/>
+      <c r="G33" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
 </file>